--- a/dashboards_v2/ESG_Dashboard.xlsx
+++ b/dashboards_v2/ESG_Dashboard.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="IMPACT_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="STRATEGY_SELECTOR" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="UPLOAD_READY_ESG" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CROSS_REFERENCE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="IMPACT CONFIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="STRATEGY SELECTOR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="UPLOAD READY ESG" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CROSS REFERENCE" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,12 +349,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'STRATEGY_SELECTOR'!$A$13:$A$16</f>
+              <f>'STRATEGY SELECTOR'!$A$13:$A$16</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'STRATEGY_SELECTOR'!$H$13:$H$16</f>
+              <f>'STRATEGY SELECTOR'!$H$13:$H$16</f>
             </numRef>
           </val>
         </ser>
@@ -388,7 +388,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'STRATEGY_SELECTOR'!$I$13:$I$16</f>
+              <f>'STRATEGY SELECTOR'!$I$13:$I$16</f>
             </numRef>
           </val>
         </ser>

--- a/dashboards_v2/ESG_Dashboard.xlsx
+++ b/dashboards_v2/ESG_Dashboard.xlsx
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="7">
@@ -1004,7 +1004,7 @@
         </is>
       </c>
       <c r="B7" s="15">
-        <f>B6*IMPACT_CONFIG!$B$4</f>
+        <f>B6*'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         </is>
       </c>
       <c r="B8" s="16" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="10">
@@ -1084,15 +1084,15 @@
         <v>0</v>
       </c>
       <c r="C13" s="15">
-        <f>B13*IMPACT_CONFIG!B8</f>
+        <f>B13*'IMPACT CONFIG'!B8</f>
         <v/>
       </c>
       <c r="D13" s="18">
-        <f>B13*IMPACT_CONFIG!C8</f>
+        <f>B13*'IMPACT CONFIG'!C8</f>
         <v/>
       </c>
       <c r="E13" s="15">
-        <f>D13*IMPACT_CONFIG!$B$4</f>
+        <f>D13*'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
       <c r="F13" s="15">
@@ -1108,7 +1108,7 @@
         <v/>
       </c>
       <c r="I13">
-        <f>IMPACT_CONFIG!$B$4</f>
+        <f>'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
     </row>
@@ -1122,15 +1122,15 @@
         <v>0</v>
       </c>
       <c r="C14" s="15">
-        <f>B14*IMPACT_CONFIG!B9</f>
+        <f>B14*'IMPACT CONFIG'!B9</f>
         <v/>
       </c>
       <c r="D14" s="18">
-        <f>B14*IMPACT_CONFIG!C9</f>
+        <f>B14*'IMPACT CONFIG'!C9</f>
         <v/>
       </c>
       <c r="E14" s="15">
-        <f>D14*IMPACT_CONFIG!$B$4</f>
+        <f>D14*'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
       <c r="F14" s="15">
@@ -1146,7 +1146,7 @@
         <v/>
       </c>
       <c r="I14">
-        <f>IMPACT_CONFIG!$B$4</f>
+        <f>'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
     </row>
@@ -1160,15 +1160,15 @@
         <v>0</v>
       </c>
       <c r="C15" s="15">
-        <f>$B$8*B15*IMPACT_CONFIG!B10</f>
+        <f>$B$8*B15*'IMPACT CONFIG'!B10</f>
         <v/>
       </c>
       <c r="D15" s="18">
-        <f>$B$8*B15*IMPACT_CONFIG!C10</f>
+        <f>$B$8*B15*'IMPACT CONFIG'!C10</f>
         <v/>
       </c>
       <c r="E15" s="15">
-        <f>D15*IMPACT_CONFIG!$B$4</f>
+        <f>D15*'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
       <c r="F15" s="15">
@@ -1185,7 +1185,7 @@
         <v/>
       </c>
       <c r="I15">
-        <f>IMPACT_CONFIG!$B$4</f>
+        <f>'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
     </row>
@@ -1199,15 +1199,15 @@
         <v>0</v>
       </c>
       <c r="C16" s="15">
-        <f>B16*IMPACT_CONFIG!B11</f>
+        <f>B16*'IMPACT CONFIG'!B11</f>
         <v/>
       </c>
       <c r="D16" s="18">
-        <f>B16*IMPACT_CONFIG!C11</f>
+        <f>B16*'IMPACT CONFIG'!C11</f>
         <v/>
       </c>
       <c r="E16" s="15">
-        <f>D16*IMPACT_CONFIG!$B$4</f>
+        <f>D16*'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
       <c r="F16" s="15">
@@ -1224,7 +1224,7 @@
         <v/>
       </c>
       <c r="I16">
-        <f>IMPACT_CONFIG!$B$4</f>
+        <f>'IMPACT CONFIG'!$B$4</f>
         <v/>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="B22" s="20">
-        <f>MAX(0,(B6-B20)*IMPACT_CONFIG!B4)</f>
+        <f>MAX(0,(B6-B20)*'IMPACT CONFIG'!B4)</f>
         <v/>
       </c>
     </row>
@@ -1459,19 +1459,19 @@
         </is>
       </c>
       <c r="B6">
-        <f>STRATEGY_SELECTOR!B13</f>
+        <f>'STRATEGY SELECTOR'!B13</f>
         <v/>
       </c>
       <c r="C6">
-        <f>STRATEGY_SELECTOR!C13</f>
+        <f>'STRATEGY SELECTOR'!C13</f>
         <v/>
       </c>
       <c r="D6">
-        <f>STRATEGY_SELECTOR!D13</f>
+        <f>'STRATEGY SELECTOR'!D13</f>
         <v/>
       </c>
       <c r="E6">
-        <f>STRATEGY_SELECTOR!E13</f>
+        <f>'STRATEGY SELECTOR'!E13</f>
         <v/>
       </c>
     </row>
@@ -1482,19 +1482,19 @@
         </is>
       </c>
       <c r="B7">
-        <f>STRATEGY_SELECTOR!B14</f>
+        <f>'STRATEGY SELECTOR'!B14</f>
         <v/>
       </c>
       <c r="C7">
-        <f>STRATEGY_SELECTOR!C14</f>
+        <f>'STRATEGY SELECTOR'!C14</f>
         <v/>
       </c>
       <c r="D7">
-        <f>STRATEGY_SELECTOR!D14</f>
+        <f>'STRATEGY SELECTOR'!D14</f>
         <v/>
       </c>
       <c r="E7">
-        <f>STRATEGY_SELECTOR!E14</f>
+        <f>'STRATEGY SELECTOR'!E14</f>
         <v/>
       </c>
     </row>
@@ -1505,19 +1505,19 @@
         </is>
       </c>
       <c r="B8">
-        <f>STRATEGY_SELECTOR!B15</f>
+        <f>'STRATEGY SELECTOR'!B15</f>
         <v/>
       </c>
       <c r="C8">
-        <f>STRATEGY_SELECTOR!C15</f>
+        <f>'STRATEGY SELECTOR'!C15</f>
         <v/>
       </c>
       <c r="D8">
-        <f>STRATEGY_SELECTOR!D15</f>
+        <f>'STRATEGY SELECTOR'!D15</f>
         <v/>
       </c>
       <c r="E8">
-        <f>STRATEGY_SELECTOR!E15</f>
+        <f>'STRATEGY SELECTOR'!E15</f>
         <v/>
       </c>
     </row>
@@ -1528,19 +1528,19 @@
         </is>
       </c>
       <c r="B9">
-        <f>STRATEGY_SELECTOR!B16</f>
+        <f>'STRATEGY SELECTOR'!B16</f>
         <v/>
       </c>
       <c r="C9">
-        <f>STRATEGY_SELECTOR!C16</f>
+        <f>'STRATEGY SELECTOR'!C16</f>
         <v/>
       </c>
       <c r="D9">
-        <f>STRATEGY_SELECTOR!D16</f>
+        <f>'STRATEGY SELECTOR'!D16</f>
         <v/>
       </c>
       <c r="E9">
-        <f>STRATEGY_SELECTOR!E16</f>
+        <f>'STRATEGY SELECTOR'!E16</f>
         <v/>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B5" s="27" t="inlineStr">
         <is>
-          <t>31200</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1612,32 +1612,68 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="27" t="inlineStr">
+        <is>
+          <t>Overtime Hours</t>
+        </is>
+      </c>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="27" t="inlineStr">
+        <is>
+          <t>Unit Cost Avg</t>
+        </is>
+      </c>
+      <c r="B8" s="27" t="inlineStr">
+        <is>
+          <t>$40.00</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
-      <c r="A9" s="35" t="inlineStr">
+      <c r="A9" s="27" t="inlineStr">
+        <is>
+          <t>Total Sales (Target)</t>
+        </is>
+      </c>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="35" t="inlineStr">
         <is>
           <t>Logistics (Transport)</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="27" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="27" t="inlineStr">
         <is>
           <t>Logistics Costs</t>
         </is>
       </c>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>$0</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="27" t="inlineStr">
+      <c r="B13" s="27" t="inlineStr">
+        <is>
+          <t>$125,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="27" t="inlineStr">
         <is>
           <t>Shipping Volume</t>
         </is>
       </c>
-      <c r="B11" s="27" t="inlineStr">
+      <c r="B14" s="27" t="inlineStr">
         <is>
           <t>See CLO Dashboard</t>
         </is>
